--- a/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025065554660582</v>
+        <v>1.022585737982786</v>
       </c>
       <c r="D2">
-        <v>1.041134482288479</v>
+        <v>1.04010112959749</v>
       </c>
       <c r="E2">
-        <v>1.036974178524804</v>
+        <v>1.035248507461928</v>
       </c>
       <c r="F2">
-        <v>1.045996001963136</v>
+        <v>1.044474300165878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051808244731707</v>
+        <v>1.052672139470353</v>
       </c>
       <c r="J2">
-        <v>1.046521560329712</v>
+        <v>1.044111278370336</v>
       </c>
       <c r="K2">
-        <v>1.05204901766706</v>
+        <v>1.051028692340004</v>
       </c>
       <c r="L2">
-        <v>1.047941359899845</v>
+        <v>1.046237681225098</v>
       </c>
       <c r="M2">
-        <v>1.056849679062701</v>
+        <v>1.055346950565569</v>
       </c>
       <c r="N2">
-        <v>1.048007740983081</v>
+        <v>1.045594036146859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03137300530761</v>
+        <v>1.026641496778406</v>
       </c>
       <c r="D3">
-        <v>1.046051565443619</v>
+        <v>1.043205651186299</v>
       </c>
       <c r="E3">
-        <v>1.042310259711058</v>
+        <v>1.03859195524032</v>
       </c>
       <c r="F3">
-        <v>1.051575131055189</v>
+        <v>1.048076049849536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053631616578691</v>
+        <v>1.053838163346964</v>
       </c>
       <c r="J3">
-        <v>1.05104347272701</v>
+        <v>1.046431326731336</v>
       </c>
       <c r="K3">
-        <v>1.056127258165038</v>
+        <v>1.053314015092091</v>
       </c>
       <c r="L3">
-        <v>1.052428948313211</v>
+        <v>1.0487537548348</v>
       </c>
       <c r="M3">
-        <v>1.061588035092044</v>
+        <v>1.058128634647493</v>
       </c>
       <c r="N3">
-        <v>1.052536075014654</v>
+        <v>1.047917379242645</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035352573641983</v>
+        <v>1.029218482732796</v>
       </c>
       <c r="D4">
-        <v>1.049156206711103</v>
+        <v>1.045181199296014</v>
       </c>
       <c r="E4">
-        <v>1.045682614685091</v>
+        <v>1.040721863075364</v>
       </c>
       <c r="F4">
-        <v>1.05510104637935</v>
+        <v>1.050370249220941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054770935883514</v>
+        <v>1.054571084323074</v>
       </c>
       <c r="J4">
-        <v>1.053893239016301</v>
+        <v>1.047903198414454</v>
       </c>
       <c r="K4">
-        <v>1.05869546185851</v>
+        <v>1.054763272974595</v>
       </c>
       <c r="L4">
-        <v>1.055259265148419</v>
+        <v>1.050352450342507</v>
       </c>
       <c r="M4">
-        <v>1.064577000735946</v>
+        <v>1.059896505911429</v>
       </c>
       <c r="N4">
-        <v>1.055389888298948</v>
+        <v>1.04939134115238</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03700236050417</v>
+        <v>1.030290863650768</v>
       </c>
       <c r="D5">
-        <v>1.05044375171303</v>
+        <v>1.046003971164888</v>
       </c>
       <c r="E5">
-        <v>1.047081961468035</v>
+        <v>1.041609487350156</v>
       </c>
       <c r="F5">
-        <v>1.056564102457009</v>
+        <v>1.051326282352377</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055240542285297</v>
+        <v>1.05487414042434</v>
       </c>
       <c r="J5">
-        <v>1.055073818169191</v>
+        <v>1.048515128745743</v>
       </c>
       <c r="K5">
-        <v>1.059758911100847</v>
+        <v>1.055365655323241</v>
       </c>
       <c r="L5">
-        <v>1.056432304958972</v>
+        <v>1.051017699611436</v>
       </c>
       <c r="M5">
-        <v>1.065815908124265</v>
+        <v>1.060632250812065</v>
       </c>
       <c r="N5">
-        <v>1.056572144009649</v>
+        <v>1.050004140494929</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037278036888379</v>
+        <v>1.030470287043171</v>
       </c>
       <c r="D6">
-        <v>1.05065892362312</v>
+        <v>1.046141670032145</v>
       </c>
       <c r="E6">
-        <v>1.047315863656993</v>
+        <v>1.041758073345206</v>
       </c>
       <c r="F6">
-        <v>1.056808653141122</v>
+        <v>1.051486316464889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055318851604631</v>
+        <v>1.054924730786705</v>
       </c>
       <c r="J6">
-        <v>1.055271040394266</v>
+        <v>1.048617478354414</v>
       </c>
       <c r="K6">
-        <v>1.059936537041817</v>
+        <v>1.055466399183272</v>
       </c>
       <c r="L6">
-        <v>1.056628298007684</v>
+        <v>1.051129002017577</v>
       </c>
       <c r="M6">
-        <v>1.066022913083934</v>
+        <v>1.060755353572159</v>
       </c>
       <c r="N6">
-        <v>1.056769646312906</v>
+        <v>1.050106635451782</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035374707974783</v>
+        <v>1.029232854639554</v>
       </c>
       <c r="D7">
-        <v>1.049173479270903</v>
+        <v>1.045192223374861</v>
       </c>
       <c r="E7">
-        <v>1.045701383983853</v>
+        <v>1.040733753851544</v>
       </c>
       <c r="F7">
-        <v>1.055120670243551</v>
+        <v>1.050383056641324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054777247147917</v>
+        <v>1.054575153539825</v>
       </c>
       <c r="J7">
-        <v>1.053909081590758</v>
+        <v>1.047911401714249</v>
       </c>
       <c r="K7">
-        <v>1.058709734574658</v>
+        <v>1.054771348863976</v>
       </c>
       <c r="L7">
-        <v>1.055275004507961</v>
+        <v>1.050361366075481</v>
       </c>
       <c r="M7">
-        <v>1.064593623429047</v>
+        <v>1.059906366045482</v>
       </c>
       <c r="N7">
-        <v>1.055405753371678</v>
+        <v>1.049399556101802</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027218972236201</v>
+        <v>1.023966425374507</v>
       </c>
       <c r="D8">
-        <v>1.042812682328394</v>
+        <v>1.041157344379203</v>
       </c>
       <c r="E8">
-        <v>1.03879473003745</v>
+        <v>1.036385529149675</v>
       </c>
       <c r="F8">
-        <v>1.047899485448603</v>
+        <v>1.045699219406977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052433063493902</v>
+        <v>1.053070732116498</v>
       </c>
       <c r="J8">
-        <v>1.048066030619547</v>
+        <v>1.044901540384863</v>
       </c>
       <c r="K8">
-        <v>1.053442351508388</v>
+        <v>1.051807244374291</v>
       </c>
       <c r="L8">
-        <v>1.049473643833104</v>
+        <v>1.047094198449269</v>
       </c>
       <c r="M8">
-        <v>1.058467482526825</v>
+        <v>1.056293800923072</v>
       </c>
       <c r="N8">
-        <v>1.049554404597881</v>
+        <v>1.046385420424091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01201242858305</v>
+        <v>1.014306866674025</v>
       </c>
       <c r="D9">
-        <v>1.030975345259677</v>
+        <v>1.033782109476655</v>
       </c>
       <c r="E9">
-        <v>1.0259660097246</v>
+        <v>1.028455475652944</v>
       </c>
       <c r="F9">
-        <v>1.034486170861391</v>
+        <v>1.037154921039809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047975484508861</v>
+        <v>1.050249745123781</v>
       </c>
       <c r="J9">
-        <v>1.037148013378473</v>
+        <v>1.039364334708353</v>
       </c>
       <c r="K9">
-        <v>1.043585092781686</v>
+        <v>1.046349881586779</v>
       </c>
       <c r="L9">
-        <v>1.038651399679008</v>
+        <v>1.041103156632696</v>
       </c>
       <c r="M9">
-        <v>1.047043459106739</v>
+        <v>1.049672634313195</v>
       </c>
       <c r="N9">
-        <v>1.03862088252001</v>
+        <v>1.040840351280394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001227923151566</v>
+        <v>1.007587436541585</v>
       </c>
       <c r="D10">
-        <v>1.022601748074557</v>
+        <v>1.028671756226916</v>
       </c>
       <c r="E10">
-        <v>1.016906389256708</v>
+        <v>1.022972262831847</v>
       </c>
       <c r="F10">
-        <v>1.025013431649931</v>
+        <v>1.031245308912811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044758822287108</v>
+        <v>1.04824775560521</v>
       </c>
       <c r="J10">
-        <v>1.029392907137998</v>
+        <v>1.035503219621067</v>
       </c>
       <c r="K10">
-        <v>1.036574569757574</v>
+        <v>1.042541936405985</v>
       </c>
       <c r="L10">
-        <v>1.030976958616789</v>
+        <v>1.036938774177175</v>
       </c>
       <c r="M10">
-        <v>1.038945284853112</v>
+        <v>1.045072441206428</v>
       </c>
       <c r="N10">
-        <v>1.030854763139151</v>
+        <v>1.036973752966808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963831194152319</v>
+        <v>1.004605625416254</v>
       </c>
       <c r="D11">
-        <v>1.01884663688699</v>
+        <v>1.026409405432135</v>
       </c>
       <c r="E11">
-        <v>1.012846938102051</v>
+        <v>1.020547471230568</v>
       </c>
       <c r="F11">
-        <v>1.020768797867859</v>
+        <v>1.028631507082045</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043301522881378</v>
+        <v>1.047350415245164</v>
       </c>
       <c r="J11">
-        <v>1.025907142805216</v>
+        <v>1.033788052268149</v>
       </c>
       <c r="K11">
-        <v>1.03342167526653</v>
+        <v>1.04084989196383</v>
       </c>
       <c r="L11">
-        <v>1.027530579655402</v>
+        <v>1.035092023751193</v>
       </c>
       <c r="M11">
-        <v>1.035309393016948</v>
+        <v>1.0430329466741</v>
       </c>
       <c r="N11">
-        <v>1.027364048621193</v>
+        <v>1.035256149879517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9945551827493543</v>
+        <v>1.003486658084063</v>
       </c>
       <c r="D12">
-        <v>1.017430976801332</v>
+        <v>1.025561298581151</v>
       </c>
       <c r="E12">
-        <v>1.011317010433344</v>
+        <v>1.019638852445846</v>
       </c>
       <c r="F12">
-        <v>1.019169067344165</v>
+        <v>1.027651990832794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042749926676325</v>
+        <v>1.047012373234206</v>
       </c>
       <c r="J12">
-        <v>1.024591778061567</v>
+        <v>1.03314418580586</v>
       </c>
       <c r="K12">
-        <v>1.032231676587717</v>
+        <v>1.040214639842902</v>
       </c>
       <c r="L12">
-        <v>1.026230559350396</v>
+        <v>1.034399232975712</v>
       </c>
       <c r="M12">
-        <v>1.03393800784133</v>
+        <v>1.042267928521544</v>
       </c>
       <c r="N12">
-        <v>1.026046815908734</v>
+        <v>1.034611369052999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9949486002281323</v>
+        <v>1.003727204733307</v>
       </c>
       <c r="D13">
-        <v>1.017735608329291</v>
+        <v>1.025743577402218</v>
       </c>
       <c r="E13">
-        <v>1.011646210243145</v>
+        <v>1.019834119588565</v>
       </c>
       <c r="F13">
-        <v>1.019513287383864</v>
+        <v>1.027862497528579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042868721983324</v>
+        <v>1.047085100980034</v>
       </c>
       <c r="J13">
-        <v>1.024874884404741</v>
+        <v>1.033282608607694</v>
       </c>
       <c r="K13">
-        <v>1.032487810882121</v>
+        <v>1.040351213511216</v>
       </c>
       <c r="L13">
-        <v>1.026510341120085</v>
+        <v>1.034548152543185</v>
       </c>
       <c r="M13">
-        <v>1.034233142684406</v>
+        <v>1.042432370236238</v>
       </c>
       <c r="N13">
-        <v>1.026330324295388</v>
+        <v>1.034749988431089</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9962326128420596</v>
+        <v>1.004513366783259</v>
       </c>
       <c r="D14">
-        <v>1.01873005192632</v>
+        <v>1.026339461097829</v>
       </c>
       <c r="E14">
-        <v>1.012720933463186</v>
+        <v>1.020472528666373</v>
       </c>
       <c r="F14">
-        <v>1.020637044503544</v>
+        <v>1.028550718398592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043256141403761</v>
+        <v>1.047322569989174</v>
       </c>
       <c r="J14">
-        <v>1.025798843132523</v>
+        <v>1.033734969958263</v>
       </c>
       <c r="K14">
-        <v>1.033323702299796</v>
+        <v>1.040797521135653</v>
       </c>
       <c r="L14">
-        <v>1.027423533492858</v>
+        <v>1.03503489838183</v>
       </c>
       <c r="M14">
-        <v>1.035196468024667</v>
+        <v>1.042969864056799</v>
       </c>
       <c r="N14">
-        <v>1.027255595150543</v>
+        <v>1.035202992186661</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9970199119739883</v>
+        <v>1.004996221360619</v>
       </c>
       <c r="D15">
-        <v>1.019339954432899</v>
+        <v>1.026705565141082</v>
       </c>
       <c r="E15">
-        <v>1.013380132909826</v>
+        <v>1.020864810135064</v>
       </c>
       <c r="F15">
-        <v>1.02132631823326</v>
+        <v>1.028973598015872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043493460586227</v>
+        <v>1.047468251013547</v>
       </c>
       <c r="J15">
-        <v>1.026365350948262</v>
+        <v>1.034012778217517</v>
       </c>
       <c r="K15">
-        <v>1.033836182120335</v>
+        <v>1.041071603193339</v>
       </c>
       <c r="L15">
-        <v>1.027983503986808</v>
+        <v>1.035333885373331</v>
       </c>
       <c r="M15">
-        <v>1.035787196334063</v>
+        <v>1.043300033747764</v>
       </c>
       <c r="N15">
-        <v>1.027822907472359</v>
+        <v>1.035481194965509</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001545597596933</v>
+        <v>1.007783762317084</v>
       </c>
       <c r="D16">
-        <v>1.022848120414943</v>
+        <v>1.028820829869845</v>
       </c>
       <c r="E16">
-        <v>1.017172795533564</v>
+        <v>1.023132094136847</v>
       </c>
       <c r="F16">
-        <v>1.025291989233127</v>
+        <v>1.031417589211179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044854129963762</v>
+        <v>1.048306654418891</v>
       </c>
       <c r="J16">
-        <v>1.029621437644509</v>
+        <v>1.035616114699691</v>
       </c>
       <c r="K16">
-        <v>1.03678124177571</v>
+        <v>1.042653299874303</v>
       </c>
       <c r="L16">
-        <v>1.031202972901881</v>
+        <v>1.037060395661971</v>
       </c>
       <c r="M16">
-        <v>1.039183743966011</v>
+        <v>1.045206767161415</v>
       </c>
       <c r="N16">
-        <v>1.031083618185193</v>
+        <v>1.037086808369393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004336185736607</v>
+        <v>1.009512601288926</v>
       </c>
       <c r="D17">
-        <v>1.025013126592841</v>
+        <v>1.030134192672177</v>
       </c>
       <c r="E17">
-        <v>1.019514222091776</v>
+        <v>1.024540532014606</v>
       </c>
       <c r="F17">
-        <v>1.027740204611089</v>
+        <v>1.032935676324048</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045689974352139</v>
+        <v>1.048824301149203</v>
       </c>
       <c r="J17">
-        <v>1.031628744541001</v>
+        <v>1.036610069278578</v>
       </c>
       <c r="K17">
-        <v>1.038596352443017</v>
+        <v>1.043633714289859</v>
       </c>
       <c r="L17">
-        <v>1.033188534090968</v>
+        <v>1.038131536713134</v>
       </c>
       <c r="M17">
-        <v>1.041278722707445</v>
+        <v>1.046389858203245</v>
       </c>
       <c r="N17">
-        <v>1.033093775687719</v>
+        <v>1.038082174477791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005947149680428</v>
+        <v>1.010514070150037</v>
       </c>
       <c r="D18">
-        <v>1.026263566727998</v>
+        <v>1.030895498691874</v>
       </c>
       <c r="E18">
-        <v>1.020866871397946</v>
+        <v>1.025357199971957</v>
       </c>
       <c r="F18">
-        <v>1.029154539397388</v>
+        <v>1.033815880889063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046171332417456</v>
+        <v>1.049123307008409</v>
       </c>
       <c r="J18">
-        <v>1.03278734841974</v>
+        <v>1.03718566974798</v>
       </c>
       <c r="K18">
-        <v>1.039643849722578</v>
+        <v>1.044201425915734</v>
       </c>
       <c r="L18">
-        <v>1.034334880757288</v>
+        <v>1.038752133639427</v>
       </c>
       <c r="M18">
-        <v>1.042488313323743</v>
+        <v>1.047075366251368</v>
       </c>
       <c r="N18">
-        <v>1.034254024916861</v>
+        <v>1.038658592365881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006493666788079</v>
+        <v>1.010854384795921</v>
       </c>
       <c r="D19">
-        <v>1.02668787697717</v>
+        <v>1.031154287254188</v>
       </c>
       <c r="E19">
-        <v>1.021325918297447</v>
+        <v>1.025634850372386</v>
       </c>
       <c r="F19">
-        <v>1.029634519288562</v>
+        <v>1.034115125377556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04633443296686</v>
+        <v>1.049224768009456</v>
       </c>
       <c r="J19">
-        <v>1.033180369302779</v>
+        <v>1.037381237715054</v>
       </c>
       <c r="K19">
-        <v>1.039999151086409</v>
+        <v>1.044394305196292</v>
       </c>
       <c r="L19">
-        <v>1.034723793326973</v>
+        <v>1.038963040230127</v>
       </c>
       <c r="M19">
-        <v>1.042898694369002</v>
+        <v>1.047308340952391</v>
       </c>
       <c r="N19">
-        <v>1.034647603934634</v>
+        <v>1.038854438061901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004038527656464</v>
+        <v>1.009327834172242</v>
       </c>
       <c r="D20">
-        <v>1.024782131362296</v>
+        <v>1.029993775543295</v>
       </c>
       <c r="E20">
-        <v>1.019264371270301</v>
+        <v>1.024389924105612</v>
       </c>
       <c r="F20">
-        <v>1.027478959186213</v>
+        <v>1.032773347759222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045600939137753</v>
+        <v>1.048769066560942</v>
       </c>
       <c r="J20">
-        <v>1.031414653615035</v>
+        <v>1.036503859212156</v>
       </c>
       <c r="K20">
-        <v>1.038402778057754</v>
+        <v>1.043528955960693</v>
       </c>
       <c r="L20">
-        <v>1.032976731827554</v>
+        <v>1.038017047926083</v>
       </c>
       <c r="M20">
-        <v>1.041055241154271</v>
+        <v>1.046263398506917</v>
       </c>
       <c r="N20">
-        <v>1.032879380728084</v>
+        <v>1.037975813580892</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9958553036705731</v>
+        <v>1.00428218052746</v>
       </c>
       <c r="D21">
-        <v>1.018437800609567</v>
+        <v>1.026164205385267</v>
       </c>
       <c r="E21">
-        <v>1.012405076626196</v>
+        <v>1.0202847553085</v>
       </c>
       <c r="F21">
-        <v>1.020306777109795</v>
+        <v>1.028348296050362</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043142345272162</v>
+        <v>1.047252773123382</v>
       </c>
       <c r="J21">
-        <v>1.025527340871825</v>
+        <v>1.033601950179495</v>
       </c>
       <c r="K21">
-        <v>1.03307808479236</v>
+        <v>1.040666283237864</v>
       </c>
       <c r="L21">
-        <v>1.027155181528332</v>
+        <v>1.034891754636867</v>
       </c>
       <c r="M21">
-        <v>1.034913380517392</v>
+        <v>1.042811794014941</v>
       </c>
       <c r="N21">
-        <v>1.026983707325493</v>
+        <v>1.03506978350455</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9905449149724698</v>
+        <v>1.001043590644382</v>
       </c>
       <c r="D22">
-        <v>1.014327456299867</v>
+        <v>1.023711277686509</v>
       </c>
       <c r="E22">
-        <v>1.00796380974365</v>
+        <v>1.017657526362357</v>
       </c>
       <c r="F22">
-        <v>1.015662856187642</v>
+        <v>1.025515930325582</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041536647153925</v>
+        <v>1.046271971557408</v>
       </c>
       <c r="J22">
-        <v>1.021705784724338</v>
+        <v>1.031738047562913</v>
       </c>
       <c r="K22">
-        <v>1.029620328297232</v>
+        <v>1.038827203090928</v>
       </c>
       <c r="L22">
-        <v>1.02337913581925</v>
+        <v>1.032887116443159</v>
       </c>
       <c r="M22">
-        <v>1.030930286162107</v>
+        <v>1.040598310333422</v>
       </c>
       <c r="N22">
-        <v>1.023156724129938</v>
+        <v>1.033203233932461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933764647814376</v>
+        <v>1.002766889259749</v>
       </c>
       <c r="D23">
-        <v>1.016518448709397</v>
+        <v>1.025016012525646</v>
       </c>
       <c r="E23">
-        <v>1.010330953807604</v>
+        <v>1.019054767284251</v>
       </c>
       <c r="F23">
-        <v>1.018138018761652</v>
+        <v>1.027022310151501</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042393752848808</v>
+        <v>1.046794568119171</v>
       </c>
       <c r="J23">
-        <v>1.02374354262055</v>
+        <v>1.032729964213303</v>
       </c>
       <c r="K23">
-        <v>1.031464220622361</v>
+        <v>1.03980594268942</v>
       </c>
       <c r="L23">
-        <v>1.025392356603444</v>
+        <v>1.033953669614546</v>
       </c>
       <c r="M23">
-        <v>1.033053826907463</v>
+        <v>1.041775934877807</v>
       </c>
       <c r="N23">
-        <v>1.025197375876097</v>
+        <v>1.034196559218269</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004173078105913</v>
+        <v>1.009411343867622</v>
       </c>
       <c r="D24">
-        <v>1.024886546290179</v>
+        <v>1.03005723867476</v>
       </c>
       <c r="E24">
-        <v>1.019377308362901</v>
+        <v>1.024457992299844</v>
       </c>
       <c r="F24">
-        <v>1.027597046866657</v>
+        <v>1.032846713308659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045641189358966</v>
+        <v>1.048794033733459</v>
       </c>
       <c r="J24">
-        <v>1.031511429761941</v>
+        <v>1.036551863794328</v>
       </c>
       <c r="K24">
-        <v>1.038490280589515</v>
+        <v>1.043576304538547</v>
       </c>
       <c r="L24">
-        <v>1.033072472511172</v>
+        <v>1.038068793382799</v>
       </c>
       <c r="M24">
-        <v>1.041156260985941</v>
+        <v>1.046320554297535</v>
       </c>
       <c r="N24">
-        <v>1.032976294308218</v>
+        <v>1.038023886335077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01605095635358</v>
+        <v>1.016851508884325</v>
       </c>
       <c r="D25">
-        <v>1.034115877732059</v>
+        <v>1.035721733237702</v>
       </c>
       <c r="E25">
-        <v>1.029366847800149</v>
+        <v>1.030538967759698</v>
       </c>
       <c r="F25">
-        <v>1.038042028376547</v>
+        <v>1.039400071654791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049169063100559</v>
+        <v>1.050999884015481</v>
       </c>
       <c r="J25">
-        <v>1.040049958383342</v>
+        <v>1.040824763382035</v>
       </c>
       <c r="K25">
-        <v>1.046206705646701</v>
+        <v>1.0477897156239</v>
       </c>
       <c r="L25">
-        <v>1.04152576566847</v>
+        <v>1.04268100630036</v>
       </c>
       <c r="M25">
-        <v>1.050077159139712</v>
+        <v>1.051416060694831</v>
       </c>
       <c r="N25">
-        <v>1.041526948619644</v>
+        <v>1.042302853930306</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022585737982786</v>
+        <v>1.015316260444238</v>
       </c>
       <c r="D2">
-        <v>1.04010112959749</v>
+        <v>1.034092102634677</v>
       </c>
       <c r="E2">
-        <v>1.035248507461928</v>
+        <v>1.02896554733833</v>
       </c>
       <c r="F2">
-        <v>1.044474300165878</v>
+        <v>1.038083045631253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052672139470353</v>
+        <v>1.04926074958874</v>
       </c>
       <c r="J2">
-        <v>1.044111278370336</v>
+        <v>1.037048320095325</v>
       </c>
       <c r="K2">
-        <v>1.051028692340004</v>
+        <v>1.045096065248843</v>
       </c>
       <c r="L2">
-        <v>1.046237681225098</v>
+        <v>1.040035572654131</v>
       </c>
       <c r="M2">
-        <v>1.055346950565569</v>
+        <v>1.049036143502471</v>
       </c>
       <c r="N2">
-        <v>1.045594036146859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016187287650615</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04295710219735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026641496778406</v>
+        <v>1.01864778518364</v>
       </c>
       <c r="D3">
-        <v>1.043205651186299</v>
+        <v>1.036375334399454</v>
       </c>
       <c r="E3">
-        <v>1.03859195524032</v>
+        <v>1.03163292483855</v>
       </c>
       <c r="F3">
-        <v>1.048076049849536</v>
+        <v>1.040928678843069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053838163346964</v>
+        <v>1.049994783459242</v>
       </c>
       <c r="J3">
-        <v>1.046431326731336</v>
+        <v>1.038642686676639</v>
       </c>
       <c r="K3">
-        <v>1.053314015092091</v>
+        <v>1.046563016145367</v>
       </c>
       <c r="L3">
-        <v>1.0487537548348</v>
+        <v>1.041876443529842</v>
       </c>
       <c r="M3">
-        <v>1.058128634647493</v>
+        <v>1.051063341418131</v>
       </c>
       <c r="N3">
-        <v>1.047917379242645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016724168833298</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043991701891836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029218482732796</v>
+        <v>1.020770489684655</v>
       </c>
       <c r="D4">
-        <v>1.045181199296014</v>
+        <v>1.037834391412633</v>
       </c>
       <c r="E4">
-        <v>1.040721863075364</v>
+        <v>1.033338248520453</v>
       </c>
       <c r="F4">
-        <v>1.050370249220941</v>
+        <v>1.042748001683929</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054571084323074</v>
+        <v>1.050455587661326</v>
       </c>
       <c r="J4">
-        <v>1.047903198414454</v>
+        <v>1.039657404447828</v>
       </c>
       <c r="K4">
-        <v>1.054763272974595</v>
+        <v>1.047496664990703</v>
       </c>
       <c r="L4">
-        <v>1.050352450342507</v>
+        <v>1.043050295163032</v>
       </c>
       <c r="M4">
-        <v>1.059896505911429</v>
+        <v>1.052356483256087</v>
       </c>
       <c r="N4">
-        <v>1.04939134115238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017065853139176</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044652753500912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030290863650768</v>
+        <v>1.021657908160176</v>
       </c>
       <c r="D5">
-        <v>1.046003971164888</v>
+        <v>1.038447257806352</v>
       </c>
       <c r="E5">
-        <v>1.041609487350156</v>
+        <v>1.034053045896786</v>
       </c>
       <c r="F5">
-        <v>1.051326282352377</v>
+        <v>1.043510904873586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05487414042434</v>
+        <v>1.050647884622425</v>
       </c>
       <c r="J5">
-        <v>1.048515128745743</v>
+        <v>1.040082683966834</v>
       </c>
       <c r="K5">
-        <v>1.055365655323241</v>
+        <v>1.04788924969714</v>
       </c>
       <c r="L5">
-        <v>1.051017699611436</v>
+        <v>1.04354239837316</v>
       </c>
       <c r="M5">
-        <v>1.060632250812065</v>
+        <v>1.052898926378589</v>
       </c>
       <c r="N5">
-        <v>1.050004140494929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017209255726737</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044937463418447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030470287043171</v>
+        <v>1.021809786450245</v>
       </c>
       <c r="D6">
-        <v>1.046141670032145</v>
+        <v>1.038554503419352</v>
       </c>
       <c r="E6">
-        <v>1.041758073345206</v>
+        <v>1.034176072331175</v>
       </c>
       <c r="F6">
-        <v>1.051486316464889</v>
+        <v>1.04364258904046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054924730786705</v>
+        <v>1.050682318057964</v>
       </c>
       <c r="J6">
-        <v>1.048617478354414</v>
+        <v>1.040157104592835</v>
       </c>
       <c r="K6">
-        <v>1.055466399183272</v>
+        <v>1.047959497078391</v>
       </c>
       <c r="L6">
-        <v>1.051129002017577</v>
+        <v>1.043628042172733</v>
       </c>
       <c r="M6">
-        <v>1.060755353572159</v>
+        <v>1.052993598301021</v>
       </c>
       <c r="N6">
-        <v>1.050106635451782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017234595578004</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044995820116639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029232854639554</v>
+        <v>1.020791309676081</v>
       </c>
       <c r="D7">
-        <v>1.045192223374861</v>
+        <v>1.037854912591823</v>
       </c>
       <c r="E7">
-        <v>1.040733753851544</v>
+        <v>1.033356657913193</v>
       </c>
       <c r="F7">
-        <v>1.050383056641324</v>
+        <v>1.042768650647535</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054575153539825</v>
+        <v>1.050464456132408</v>
       </c>
       <c r="J7">
-        <v>1.047911401714249</v>
+        <v>1.039671818743661</v>
       </c>
       <c r="K7">
-        <v>1.054771348863976</v>
+        <v>1.047514104701045</v>
       </c>
       <c r="L7">
-        <v>1.050361366075481</v>
+        <v>1.043065627585306</v>
       </c>
       <c r="M7">
-        <v>1.059906366045482</v>
+        <v>1.052374069852659</v>
       </c>
       <c r="N7">
-        <v>1.049399556101802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017071381252701</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044685064467203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023966425374507</v>
+        <v>1.016460283774504</v>
       </c>
       <c r="D8">
-        <v>1.041157344379203</v>
+        <v>1.034882838465297</v>
       </c>
       <c r="E8">
-        <v>1.036385529149675</v>
+        <v>1.029882382386417</v>
       </c>
       <c r="F8">
-        <v>1.045699219406977</v>
+        <v>1.039062340499913</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053070732116498</v>
+        <v>1.049519590824694</v>
       </c>
       <c r="J8">
-        <v>1.044901540384863</v>
+        <v>1.037601549245472</v>
       </c>
       <c r="K8">
-        <v>1.051807244374291</v>
+        <v>1.045610154547325</v>
       </c>
       <c r="L8">
-        <v>1.047094198449269</v>
+        <v>1.040672237446934</v>
       </c>
       <c r="M8">
-        <v>1.056293800923072</v>
+        <v>1.049737959693203</v>
       </c>
       <c r="N8">
-        <v>1.046385420424091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016374450533873</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043343367975637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014306866674025</v>
+        <v>1.00855152738584</v>
       </c>
       <c r="D9">
-        <v>1.033782109476655</v>
+        <v>1.029480989503649</v>
       </c>
       <c r="E9">
-        <v>1.028455475652944</v>
+        <v>1.023582277679267</v>
       </c>
       <c r="F9">
-        <v>1.037154921039809</v>
+        <v>1.032340129289482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050249745123781</v>
+        <v>1.047734085120564</v>
       </c>
       <c r="J9">
-        <v>1.039364334708353</v>
+        <v>1.033805881551727</v>
       </c>
       <c r="K9">
-        <v>1.046349881586779</v>
+        <v>1.042113204133241</v>
       </c>
       <c r="L9">
-        <v>1.041103156632696</v>
+        <v>1.036303994256869</v>
       </c>
       <c r="M9">
-        <v>1.049672634313195</v>
+        <v>1.044929430071921</v>
       </c>
       <c r="N9">
-        <v>1.040840351280394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01509555572842</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040867665480467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007587436541585</v>
+        <v>1.003091201604994</v>
       </c>
       <c r="D10">
-        <v>1.028671756226916</v>
+        <v>1.025779367117717</v>
       </c>
       <c r="E10">
-        <v>1.022972262831847</v>
+        <v>1.019266731832918</v>
       </c>
       <c r="F10">
-        <v>1.031245308912811</v>
+        <v>1.027735706689921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04824775560521</v>
+        <v>1.046468506219169</v>
       </c>
       <c r="J10">
-        <v>1.035503219621067</v>
+        <v>1.031182708999535</v>
       </c>
       <c r="K10">
-        <v>1.042541936405985</v>
+        <v>1.039698260996623</v>
       </c>
       <c r="L10">
-        <v>1.036938774177175</v>
+        <v>1.033296620020183</v>
       </c>
       <c r="M10">
-        <v>1.045072441206428</v>
+        <v>1.041621613143575</v>
       </c>
       <c r="N10">
-        <v>1.036973752966808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014212105938633</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039176891035091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004605625416254</v>
+        <v>1.000689686137405</v>
       </c>
       <c r="D11">
-        <v>1.026409405432135</v>
+        <v>1.024165332707808</v>
       </c>
       <c r="E11">
-        <v>1.020547471230568</v>
+        <v>1.01737932787513</v>
       </c>
       <c r="F11">
-        <v>1.028631507082045</v>
+        <v>1.025722931633436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047350415245164</v>
+        <v>1.045909316706258</v>
       </c>
       <c r="J11">
-        <v>1.033788052268149</v>
+        <v>1.030033801479968</v>
       </c>
       <c r="K11">
-        <v>1.04084989196383</v>
+        <v>1.038645475338371</v>
       </c>
       <c r="L11">
-        <v>1.035092023751193</v>
+        <v>1.03198077284978</v>
       </c>
       <c r="M11">
-        <v>1.0430329466741</v>
+        <v>1.04017552528977</v>
       </c>
       <c r="N11">
-        <v>1.035256149879517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013826222265137</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038465215974667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003486658084063</v>
+        <v>0.9997837861045366</v>
       </c>
       <c r="D12">
-        <v>1.025561298581151</v>
+        <v>1.023553371442835</v>
       </c>
       <c r="E12">
-        <v>1.019638852445846</v>
+        <v>1.016667399109592</v>
       </c>
       <c r="F12">
-        <v>1.027651990832794</v>
+        <v>1.024963124239026</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047012373234206</v>
+        <v>1.045694368110049</v>
       </c>
       <c r="J12">
-        <v>1.03314418580586</v>
+        <v>1.029597299310486</v>
       </c>
       <c r="K12">
-        <v>1.040214639842902</v>
+        <v>1.038242822547177</v>
       </c>
       <c r="L12">
-        <v>1.034399232975712</v>
+        <v>1.031482096099778</v>
       </c>
       <c r="M12">
-        <v>1.042267928521544</v>
+        <v>1.039627203629254</v>
       </c>
       <c r="N12">
-        <v>1.034611369052999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013679079838251</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038180529848539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003727204733307</v>
+        <v>0.9999772094071806</v>
       </c>
       <c r="D13">
-        <v>1.025743577402218</v>
+        <v>1.023683179547574</v>
       </c>
       <c r="E13">
-        <v>1.019834119588565</v>
+        <v>1.016819098977153</v>
       </c>
       <c r="F13">
-        <v>1.027862497528579</v>
+        <v>1.025124916222315</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047085100980034</v>
+        <v>1.045739754328004</v>
       </c>
       <c r="J13">
-        <v>1.033282608607694</v>
+        <v>1.029689909237156</v>
       </c>
       <c r="K13">
-        <v>1.040351213511216</v>
+        <v>1.03832773086195</v>
       </c>
       <c r="L13">
-        <v>1.034548152543185</v>
+        <v>1.031588036175455</v>
       </c>
       <c r="M13">
-        <v>1.042432370236238</v>
+        <v>1.039743616354109</v>
       </c>
       <c r="N13">
-        <v>1.034749988431089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013710190022589</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038238080340593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004513366783259</v>
+        <v>1.000614430127359</v>
       </c>
       <c r="D14">
-        <v>1.026339461097829</v>
+        <v>1.024114128508561</v>
       </c>
       <c r="E14">
-        <v>1.020472528666373</v>
+        <v>1.017320052972992</v>
       </c>
       <c r="F14">
-        <v>1.028550718398592</v>
+        <v>1.025659623134686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047322569989174</v>
+        <v>1.045891244203214</v>
       </c>
       <c r="J14">
-        <v>1.033734969958263</v>
+        <v>1.029997287965217</v>
       </c>
       <c r="K14">
-        <v>1.040797521135653</v>
+        <v>1.038611570755645</v>
       </c>
       <c r="L14">
-        <v>1.03503489838183</v>
+        <v>1.031939117392366</v>
       </c>
       <c r="M14">
-        <v>1.042969864056799</v>
+        <v>1.040129690904741</v>
       </c>
       <c r="N14">
-        <v>1.035202992186661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013813867754635</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038440181302567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004996221360619</v>
+        <v>1.001008491821674</v>
       </c>
       <c r="D15">
-        <v>1.026705565141082</v>
+        <v>1.024382374854042</v>
       </c>
       <c r="E15">
-        <v>1.020864810135064</v>
+        <v>1.017630511743189</v>
       </c>
       <c r="F15">
-        <v>1.028973598015872</v>
+        <v>1.02599121997364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047468251013547</v>
+        <v>1.045985888251793</v>
       </c>
       <c r="J15">
-        <v>1.034012778217517</v>
+        <v>1.030188541120918</v>
       </c>
       <c r="K15">
-        <v>1.041071603193339</v>
+        <v>1.038789214033579</v>
       </c>
       <c r="L15">
-        <v>1.035333885373331</v>
+        <v>1.032157304406265</v>
       </c>
       <c r="M15">
-        <v>1.043300033747764</v>
+        <v>1.040369778251263</v>
       </c>
       <c r="N15">
-        <v>1.035481194965509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013878590030377</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038571625874214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007783762317084</v>
+        <v>1.003270765342265</v>
       </c>
       <c r="D16">
-        <v>1.028820829869845</v>
+        <v>1.025914193114821</v>
       </c>
       <c r="E16">
-        <v>1.023132094136847</v>
+        <v>1.01941228400838</v>
       </c>
       <c r="F16">
-        <v>1.031417589211179</v>
+        <v>1.027892891783112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048306654418891</v>
+        <v>1.046519844796288</v>
       </c>
       <c r="J16">
-        <v>1.035616114699691</v>
+        <v>1.031278840350681</v>
       </c>
       <c r="K16">
-        <v>1.042653299874303</v>
+        <v>1.039795456588305</v>
       </c>
       <c r="L16">
-        <v>1.037060395661971</v>
+        <v>1.033403996184389</v>
       </c>
       <c r="M16">
-        <v>1.045206767161415</v>
+        <v>1.041740900353009</v>
       </c>
       <c r="N16">
-        <v>1.037086808369393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014246225186415</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039286222543097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009512601288926</v>
+        <v>1.004676470929909</v>
       </c>
       <c r="D17">
-        <v>1.030134192672177</v>
+        <v>1.026867748571053</v>
       </c>
       <c r="E17">
-        <v>1.024540532014606</v>
+        <v>1.020521651294496</v>
       </c>
       <c r="F17">
-        <v>1.032935676324048</v>
+        <v>1.029076896432258</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048824301149203</v>
+        <v>1.046849552176602</v>
       </c>
       <c r="J17">
-        <v>1.036610069278578</v>
+        <v>1.031956117894524</v>
       </c>
       <c r="K17">
-        <v>1.043633714289859</v>
+        <v>1.040420536513866</v>
       </c>
       <c r="L17">
-        <v>1.038131536713134</v>
+        <v>1.034179181226513</v>
       </c>
       <c r="M17">
-        <v>1.046389858203245</v>
+        <v>1.042593611963909</v>
       </c>
       <c r="N17">
-        <v>1.038082174477791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014474598519565</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039730748923428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010514070150037</v>
+        <v>1.005485157321152</v>
       </c>
       <c r="D18">
-        <v>1.030895498691874</v>
+        <v>1.027412632742114</v>
       </c>
       <c r="E18">
-        <v>1.025357199971957</v>
+        <v>1.021159359972173</v>
       </c>
       <c r="F18">
-        <v>1.033815880889063</v>
+        <v>1.029756893862202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049123307008409</v>
+        <v>1.047035494621968</v>
       </c>
       <c r="J18">
-        <v>1.03718566974798</v>
+        <v>1.032342531686651</v>
       </c>
       <c r="K18">
-        <v>1.044201425915734</v>
+        <v>1.040774389707325</v>
       </c>
       <c r="L18">
-        <v>1.038752133639427</v>
+        <v>1.034622584215504</v>
       </c>
       <c r="M18">
-        <v>1.047075366251368</v>
+        <v>1.043081019449192</v>
       </c>
       <c r="N18">
-        <v>1.038658592365881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014604346113817</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039969350080147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010854384795921</v>
+        <v>1.005765147606138</v>
       </c>
       <c r="D19">
-        <v>1.031154287254188</v>
+        <v>1.02760472721646</v>
       </c>
       <c r="E19">
-        <v>1.025634850372386</v>
+        <v>1.021381283690992</v>
       </c>
       <c r="F19">
-        <v>1.034115125377556</v>
+        <v>1.029994009783149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049224768009456</v>
+        <v>1.047102064920044</v>
       </c>
       <c r="J19">
-        <v>1.037381237715054</v>
+        <v>1.032478745269869</v>
       </c>
       <c r="K19">
-        <v>1.044394305196292</v>
+        <v>1.040901309306882</v>
       </c>
       <c r="L19">
-        <v>1.038963040230127</v>
+        <v>1.034778258547375</v>
       </c>
       <c r="M19">
-        <v>1.047308340952391</v>
+        <v>1.043252462413461</v>
       </c>
       <c r="N19">
-        <v>1.038854438061901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014650514276472</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040065447886754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009327834172242</v>
+        <v>1.004525634794576</v>
       </c>
       <c r="D20">
-        <v>1.029993775543295</v>
+        <v>1.026765032746295</v>
       </c>
       <c r="E20">
-        <v>1.024389924105612</v>
+        <v>1.020402430671034</v>
       </c>
       <c r="F20">
-        <v>1.032773347759222</v>
+        <v>1.028949608126972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048769066560942</v>
+        <v>1.046814020678001</v>
       </c>
       <c r="J20">
-        <v>1.036503859212156</v>
+        <v>1.031883208651021</v>
       </c>
       <c r="K20">
-        <v>1.043528955960693</v>
+        <v>1.040353030141137</v>
       </c>
       <c r="L20">
-        <v>1.038017047926083</v>
+        <v>1.034095770283905</v>
       </c>
       <c r="M20">
-        <v>1.046263398506917</v>
+        <v>1.042501822816061</v>
       </c>
       <c r="N20">
-        <v>1.037975813580892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014449970949514</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039681690720805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00428218052746</v>
+        <v>1.000433997040445</v>
       </c>
       <c r="D21">
-        <v>1.026164205385267</v>
+        <v>1.023996611975886</v>
       </c>
       <c r="E21">
-        <v>1.0202847553085</v>
+        <v>1.017179563254539</v>
       </c>
       <c r="F21">
-        <v>1.028348296050362</v>
+        <v>1.025510289311469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047252773123382</v>
+        <v>1.045851523645659</v>
       </c>
       <c r="J21">
-        <v>1.033601950179495</v>
+        <v>1.02991358421641</v>
       </c>
       <c r="K21">
-        <v>1.040666283237864</v>
+        <v>1.03853718951821</v>
       </c>
       <c r="L21">
-        <v>1.034891754636867</v>
+        <v>1.031842612766951</v>
       </c>
       <c r="M21">
-        <v>1.042811794014941</v>
+        <v>1.040023959445286</v>
       </c>
       <c r="N21">
-        <v>1.03506978350455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013786237948101</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038401044680028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001043590644382</v>
+        <v>0.997808055673282</v>
       </c>
       <c r="D22">
-        <v>1.023711277686509</v>
+        <v>1.022220062160069</v>
       </c>
       <c r="E22">
-        <v>1.017657526362357</v>
+        <v>1.015116954767964</v>
       </c>
       <c r="F22">
-        <v>1.025515930325582</v>
+        <v>1.023308312952873</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046271971557408</v>
+        <v>1.045223103235261</v>
       </c>
       <c r="J22">
-        <v>1.031738047562913</v>
+        <v>1.028644757653988</v>
       </c>
       <c r="K22">
-        <v>1.038827203090928</v>
+        <v>1.037363823364802</v>
       </c>
       <c r="L22">
-        <v>1.032887116443159</v>
+        <v>1.030394774669123</v>
       </c>
       <c r="M22">
-        <v>1.040598310333422</v>
+        <v>1.038431749867033</v>
       </c>
       <c r="N22">
-        <v>1.033203233932461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013357920200622</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037557989079801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002766889259749</v>
+        <v>0.9991960701179733</v>
       </c>
       <c r="D23">
-        <v>1.025016012525646</v>
+        <v>1.023153115826181</v>
       </c>
       <c r="E23">
-        <v>1.019054767284251</v>
+        <v>1.016204806743977</v>
       </c>
       <c r="F23">
-        <v>1.027022310151501</v>
+        <v>1.02446893838038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046794568119171</v>
+        <v>1.045552147693747</v>
       </c>
       <c r="J23">
-        <v>1.032729964213303</v>
+        <v>1.029311495661451</v>
       </c>
       <c r="K23">
-        <v>1.03980594268942</v>
+        <v>1.037976922398192</v>
       </c>
       <c r="L23">
-        <v>1.033953669614546</v>
+        <v>1.031156395763108</v>
       </c>
       <c r="M23">
-        <v>1.041775934877807</v>
+        <v>1.039268800355606</v>
       </c>
       <c r="N23">
-        <v>1.034196559218269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013582265697802</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037981882642439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009411343867622</v>
+        <v>1.004580074614157</v>
       </c>
       <c r="D24">
-        <v>1.03005723867476</v>
+        <v>1.026793120567349</v>
       </c>
       <c r="E24">
-        <v>1.024457992299844</v>
+        <v>1.020442763705179</v>
       </c>
       <c r="F24">
-        <v>1.032846713308659</v>
+        <v>1.028991398261969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048794033733459</v>
+        <v>1.046820601382339</v>
       </c>
       <c r="J24">
-        <v>1.036551863794328</v>
+        <v>1.031902951137061</v>
       </c>
       <c r="K24">
-        <v>1.043576304538547</v>
+        <v>1.040365507711317</v>
       </c>
       <c r="L24">
-        <v>1.038068793382799</v>
+        <v>1.034120146649437</v>
       </c>
       <c r="M24">
-        <v>1.046320554297535</v>
+        <v>1.04252782745541</v>
       </c>
       <c r="N24">
-        <v>1.038023886335077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014455487479956</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039663247122628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016851508884325</v>
+        <v>1.010642955970236</v>
       </c>
       <c r="D25">
-        <v>1.035721733237702</v>
+        <v>1.030914657451641</v>
       </c>
       <c r="E25">
-        <v>1.030538967759698</v>
+        <v>1.025245355751483</v>
       </c>
       <c r="F25">
-        <v>1.039400071654791</v>
+        <v>1.034116048368324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050999884015481</v>
+        <v>1.048219004252391</v>
       </c>
       <c r="J25">
-        <v>1.040824763382035</v>
+        <v>1.034817375197814</v>
       </c>
       <c r="K25">
-        <v>1.0477897156239</v>
+        <v>1.043051296091138</v>
       </c>
       <c r="L25">
-        <v>1.04268100630036</v>
+        <v>1.037464014604608</v>
       </c>
       <c r="M25">
-        <v>1.051416060694831</v>
+        <v>1.046206873850668</v>
       </c>
       <c r="N25">
-        <v>1.042302853930306</v>
+        <v>1.015437512079674</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041559371436981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015316260444238</v>
+        <v>1.014512418352414</v>
       </c>
       <c r="D2">
-        <v>1.034092102634677</v>
+        <v>1.032695503798678</v>
       </c>
       <c r="E2">
-        <v>1.02896554733833</v>
+        <v>1.028159468405812</v>
       </c>
       <c r="F2">
-        <v>1.038083045631253</v>
+        <v>1.036995486673998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04926074958874</v>
+        <v>1.048647311248708</v>
       </c>
       <c r="J2">
-        <v>1.037048320095325</v>
+        <v>1.036267563377602</v>
       </c>
       <c r="K2">
-        <v>1.045096065248843</v>
+        <v>1.043717382226477</v>
       </c>
       <c r="L2">
-        <v>1.040035572654131</v>
+        <v>1.03923995618651</v>
       </c>
       <c r="M2">
-        <v>1.049036143502471</v>
+        <v>1.047962397063914</v>
       </c>
       <c r="N2">
-        <v>1.016187287650615</v>
+        <v>1.016771334432988</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04295710219735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041990989459263</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023644177251665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01864778518364</v>
+        <v>1.017730856646976</v>
       </c>
       <c r="D3">
-        <v>1.036375334399454</v>
+        <v>1.03482725135921</v>
       </c>
       <c r="E3">
-        <v>1.03163292483855</v>
+        <v>1.030717956627844</v>
       </c>
       <c r="F3">
-        <v>1.040928678843069</v>
+        <v>1.039711605144396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049994783459242</v>
+        <v>1.049306178260033</v>
       </c>
       <c r="J3">
-        <v>1.038642686676639</v>
+        <v>1.037749560163162</v>
       </c>
       <c r="K3">
-        <v>1.046563016145367</v>
+        <v>1.045033090532009</v>
       </c>
       <c r="L3">
-        <v>1.041876443529842</v>
+        <v>1.040972321382357</v>
       </c>
       <c r="M3">
-        <v>1.051063341418131</v>
+        <v>1.049860383118811</v>
       </c>
       <c r="N3">
-        <v>1.016724168833298</v>
+        <v>1.017167892094063</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043991701891836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042918374098879</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02389803312131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020770489684655</v>
+        <v>1.019782134056903</v>
       </c>
       <c r="D4">
-        <v>1.037834391412633</v>
+        <v>1.036190178788629</v>
       </c>
       <c r="E4">
-        <v>1.033338248520453</v>
+        <v>1.032354399842464</v>
       </c>
       <c r="F4">
-        <v>1.042748001683929</v>
+        <v>1.041448905160822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050455587661326</v>
+        <v>1.049719246520624</v>
       </c>
       <c r="J4">
-        <v>1.039657404447828</v>
+        <v>1.038692999004296</v>
       </c>
       <c r="K4">
-        <v>1.047496664990703</v>
+        <v>1.045870592494017</v>
       </c>
       <c r="L4">
-        <v>1.043050295163032</v>
+        <v>1.04207740899354</v>
       </c>
       <c r="M4">
-        <v>1.052356483256087</v>
+        <v>1.051071548064786</v>
       </c>
       <c r="N4">
-        <v>1.017065853139176</v>
+        <v>1.017420366341722</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044652753500912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043511525583875</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024057429240147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021657908160176</v>
+        <v>1.020639846528809</v>
       </c>
       <c r="D5">
-        <v>1.038447257806352</v>
+        <v>1.036763006726051</v>
       </c>
       <c r="E5">
-        <v>1.034053045896786</v>
+        <v>1.033040532976979</v>
       </c>
       <c r="F5">
-        <v>1.043510904873586</v>
+        <v>1.042177665127275</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050647884622425</v>
+        <v>1.049891642671403</v>
       </c>
       <c r="J5">
-        <v>1.040082683966834</v>
+        <v>1.039088567662642</v>
       </c>
       <c r="K5">
-        <v>1.04788924969714</v>
+        <v>1.046223093229184</v>
       </c>
       <c r="L5">
-        <v>1.04354239837316</v>
+        <v>1.042540868331078</v>
       </c>
       <c r="M5">
-        <v>1.052898926378589</v>
+        <v>1.051579834580564</v>
       </c>
       <c r="N5">
-        <v>1.017209255726737</v>
+        <v>1.017526390712597</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044937463418447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04376860420584</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.024124398509336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021809786450245</v>
+        <v>1.020786663073293</v>
       </c>
       <c r="D6">
-        <v>1.038554503419352</v>
+        <v>1.036863476586648</v>
       </c>
       <c r="E6">
-        <v>1.034176072331175</v>
+        <v>1.033158679854503</v>
       </c>
       <c r="F6">
-        <v>1.04364258904046</v>
+        <v>1.042303551423663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050682318057964</v>
+        <v>1.049922694996579</v>
       </c>
       <c r="J6">
-        <v>1.040157104592835</v>
+        <v>1.039157923933031</v>
       </c>
       <c r="K6">
-        <v>1.047959497078391</v>
+        <v>1.0462865556629</v>
       </c>
       <c r="L6">
-        <v>1.043628042172733</v>
+        <v>1.04262163519845</v>
       </c>
       <c r="M6">
-        <v>1.052993598301021</v>
+        <v>1.051668705308182</v>
       </c>
       <c r="N6">
-        <v>1.017234595578004</v>
+        <v>1.017545175648513</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044995820116639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043823031925799</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024136925671055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020791309676081</v>
+        <v>1.019808842802561</v>
       </c>
       <c r="D7">
-        <v>1.037854912591823</v>
+        <v>1.036214794807708</v>
       </c>
       <c r="E7">
-        <v>1.033356657913193</v>
+        <v>1.032377956669545</v>
       </c>
       <c r="F7">
-        <v>1.042768650647535</v>
+        <v>1.041474404687135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050464456132408</v>
+        <v>1.049730854132888</v>
       </c>
       <c r="J7">
-        <v>1.039671818743661</v>
+        <v>1.038713149200295</v>
       </c>
       <c r="K7">
-        <v>1.047514104701045</v>
+        <v>1.045892074877169</v>
       </c>
       <c r="L7">
-        <v>1.043065627585306</v>
+        <v>1.042097827316628</v>
       </c>
       <c r="M7">
-        <v>1.052374069852659</v>
+        <v>1.051093926892776</v>
       </c>
       <c r="N7">
-        <v>1.017071381252701</v>
+        <v>1.017451982401641</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044685064467203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043548693011296</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024063387045188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016460283774504</v>
+        <v>1.015637640850027</v>
       </c>
       <c r="D8">
-        <v>1.034882838465297</v>
+        <v>1.033449287521122</v>
       </c>
       <c r="E8">
-        <v>1.029882382386417</v>
+        <v>1.029056609687465</v>
       </c>
       <c r="F8">
-        <v>1.039062340499913</v>
+        <v>1.037947402252161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049519590824694</v>
+        <v>1.048890063166754</v>
       </c>
       <c r="J8">
-        <v>1.037601549245472</v>
+        <v>1.036801752471176</v>
       </c>
       <c r="K8">
-        <v>1.045610154547325</v>
+        <v>1.044194455414971</v>
       </c>
       <c r="L8">
-        <v>1.040672237446934</v>
+        <v>1.039856865349889</v>
       </c>
       <c r="M8">
-        <v>1.049737959693203</v>
+        <v>1.048636761604564</v>
       </c>
       <c r="N8">
-        <v>1.016374450533873</v>
+        <v>1.016993023186634</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043343367975637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042353348677694</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02373992693273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00855152738584</v>
+        <v>1.008004190881126</v>
       </c>
       <c r="D9">
-        <v>1.029480989503649</v>
+        <v>1.028411466484516</v>
       </c>
       <c r="E9">
-        <v>1.023582277679267</v>
+        <v>1.023020624153574</v>
       </c>
       <c r="F9">
-        <v>1.032340129289482</v>
+        <v>1.031538166538676</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047734085120564</v>
+        <v>1.047285327440863</v>
       </c>
       <c r="J9">
-        <v>1.033805881551727</v>
+        <v>1.033277432557092</v>
       </c>
       <c r="K9">
-        <v>1.042113204133241</v>
+        <v>1.041059812070413</v>
       </c>
       <c r="L9">
-        <v>1.036303994256869</v>
+        <v>1.03575093142343</v>
       </c>
       <c r="M9">
-        <v>1.044929430071921</v>
+        <v>1.044139473717816</v>
       </c>
       <c r="N9">
-        <v>1.01509555572842</v>
+        <v>1.016058945165297</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040867665480467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040133536620997</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02312160542681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003091201604994</v>
+        <v>1.002767580825758</v>
       </c>
       <c r="D10">
-        <v>1.025779367117717</v>
+        <v>1.024985672870392</v>
       </c>
       <c r="E10">
-        <v>1.019266731832918</v>
+        <v>1.018916613430781</v>
       </c>
       <c r="F10">
-        <v>1.027735706689921</v>
+        <v>1.027178178007104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046468506219169</v>
+        <v>1.046159777176822</v>
       </c>
       <c r="J10">
-        <v>1.031182708999535</v>
+        <v>1.030871822173818</v>
       </c>
       <c r="K10">
-        <v>1.039698260996623</v>
+        <v>1.038917996210478</v>
       </c>
       <c r="L10">
-        <v>1.033296620020183</v>
+        <v>1.03295252061617</v>
       </c>
       <c r="M10">
-        <v>1.041621613143575</v>
+        <v>1.041073468891537</v>
       </c>
       <c r="N10">
-        <v>1.014212105938633</v>
+        <v>1.015531596193281</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039176891035091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03863755569919</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022690613353675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000689686137405</v>
+        <v>1.000513058722358</v>
       </c>
       <c r="D11">
-        <v>1.024165332707808</v>
+        <v>1.023529330243214</v>
       </c>
       <c r="E11">
-        <v>1.01737932787513</v>
+        <v>1.017165117239409</v>
       </c>
       <c r="F11">
-        <v>1.025722931633436</v>
+        <v>1.025314421372723</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045909316706258</v>
+        <v>1.045685527273104</v>
       </c>
       <c r="J11">
-        <v>1.030033801479968</v>
+        <v>1.029864509416966</v>
       </c>
       <c r="K11">
-        <v>1.038645475338371</v>
+        <v>1.038020753017223</v>
       </c>
       <c r="L11">
-        <v>1.03198077284978</v>
+        <v>1.031770425564925</v>
       </c>
       <c r="M11">
-        <v>1.04017552528977</v>
+        <v>1.039774229775819</v>
       </c>
       <c r="N11">
-        <v>1.013826222265137</v>
+        <v>1.015490199149906</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038465215974667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038039073002806</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022512794817877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9997837861045366</v>
+        <v>0.9996671818406543</v>
       </c>
       <c r="D12">
-        <v>1.023553371442835</v>
+        <v>1.022980225416989</v>
       </c>
       <c r="E12">
-        <v>1.016667399109592</v>
+        <v>1.016508517528089</v>
       </c>
       <c r="F12">
-        <v>1.024963124239026</v>
+        <v>1.024614744200685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045694368110049</v>
+        <v>1.045504848736295</v>
       </c>
       <c r="J12">
-        <v>1.029597299310486</v>
+        <v>1.029485633810844</v>
       </c>
       <c r="K12">
-        <v>1.038242822547177</v>
+        <v>1.037680017584318</v>
       </c>
       <c r="L12">
-        <v>1.031482096099778</v>
+        <v>1.031326130431897</v>
       </c>
       <c r="M12">
-        <v>1.039627203629254</v>
+        <v>1.039285085043826</v>
       </c>
       <c r="N12">
-        <v>1.013679079838251</v>
+        <v>1.015490157213882</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038180529848539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037798168832519</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022444412561352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999772094071806</v>
+        <v>0.9998475785689462</v>
       </c>
       <c r="D13">
-        <v>1.023683179547574</v>
+        <v>1.023096435520623</v>
       </c>
       <c r="E13">
-        <v>1.016819098977153</v>
+        <v>1.016648216554903</v>
       </c>
       <c r="F13">
-        <v>1.025124916222315</v>
+        <v>1.024763509412297</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045739754328004</v>
+        <v>1.045542813658048</v>
       </c>
       <c r="J13">
-        <v>1.029689909237156</v>
+        <v>1.029565745903995</v>
       </c>
       <c r="K13">
-        <v>1.03832773086195</v>
+        <v>1.037751534606199</v>
       </c>
       <c r="L13">
-        <v>1.031588036175455</v>
+        <v>1.031420278259327</v>
       </c>
       <c r="M13">
-        <v>1.039743616354109</v>
+        <v>1.039388680906137</v>
       </c>
       <c r="N13">
-        <v>1.013710190022589</v>
+        <v>1.015489096814387</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038238080340593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037846008001872</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022458594698553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000614430127359</v>
+        <v>1.000442691947934</v>
       </c>
       <c r="D14">
-        <v>1.024114128508561</v>
+        <v>1.023483266694101</v>
       </c>
       <c r="E14">
-        <v>1.017320052972992</v>
+        <v>1.01711035240495</v>
       </c>
       <c r="F14">
-        <v>1.025659623134686</v>
+        <v>1.02525602165336</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045891244203214</v>
+        <v>1.045670253706349</v>
       </c>
       <c r="J14">
-        <v>1.029997287965217</v>
+        <v>1.029832693758425</v>
       </c>
       <c r="K14">
-        <v>1.038611570755645</v>
+        <v>1.037991913877214</v>
       </c>
       <c r="L14">
-        <v>1.031939117392366</v>
+        <v>1.031733204326523</v>
       </c>
       <c r="M14">
-        <v>1.040129690904741</v>
+        <v>1.039733227862024</v>
       </c>
       <c r="N14">
-        <v>1.013813867754635</v>
+        <v>1.015489713001721</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038440181302567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038017516290354</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022506934042722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001008491821674</v>
+        <v>1.000811337666734</v>
       </c>
       <c r="D15">
-        <v>1.024382374854042</v>
+        <v>1.023724737854979</v>
       </c>
       <c r="E15">
-        <v>1.017630511743189</v>
+        <v>1.017397360368146</v>
       </c>
       <c r="F15">
-        <v>1.02599121997364</v>
+        <v>1.025562075933023</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045985888251793</v>
+        <v>1.045750333199476</v>
       </c>
       <c r="J15">
-        <v>1.030188541120918</v>
+        <v>1.029999518112996</v>
       </c>
       <c r="K15">
-        <v>1.038789214033579</v>
+        <v>1.03814317041794</v>
       </c>
       <c r="L15">
-        <v>1.032157304406265</v>
+        <v>1.031928332136953</v>
       </c>
       <c r="M15">
-        <v>1.040369778251263</v>
+        <v>1.039948166625089</v>
       </c>
       <c r="N15">
-        <v>1.013878590030377</v>
+        <v>1.015492973343953</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038571625874214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038130873440741</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02253769059582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003270765342265</v>
+        <v>1.002937258363662</v>
       </c>
       <c r="D16">
-        <v>1.025914193114821</v>
+        <v>1.025109843909183</v>
       </c>
       <c r="E16">
-        <v>1.01941228400838</v>
+        <v>1.01905298655716</v>
       </c>
       <c r="F16">
-        <v>1.027892891783112</v>
+        <v>1.027325275149641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046519844796288</v>
+        <v>1.046205326881781</v>
       </c>
       <c r="J16">
-        <v>1.031278840350681</v>
+        <v>1.03095840790617</v>
       </c>
       <c r="K16">
-        <v>1.039795456588305</v>
+        <v>1.039004672985161</v>
       </c>
       <c r="L16">
-        <v>1.033403996184389</v>
+        <v>1.033050855269124</v>
       </c>
       <c r="M16">
-        <v>1.041740900353009</v>
+        <v>1.041182806447636</v>
       </c>
       <c r="N16">
-        <v>1.014246225186415</v>
+        <v>1.015543683680792</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039286222543097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038743432623519</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022710794193374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004676470929909</v>
+        <v>1.004267933282046</v>
       </c>
       <c r="D17">
-        <v>1.026867748571053</v>
+        <v>1.025979493812286</v>
       </c>
       <c r="E17">
-        <v>1.020521651294496</v>
+        <v>1.020092536359021</v>
       </c>
       <c r="F17">
-        <v>1.029076896432258</v>
+        <v>1.028431538035707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046849552176602</v>
+        <v>1.046490643346129</v>
       </c>
       <c r="J17">
-        <v>1.031956117894524</v>
+        <v>1.031563083354527</v>
       </c>
       <c r="K17">
-        <v>1.040420536513866</v>
+        <v>1.039546842064556</v>
       </c>
       <c r="L17">
-        <v>1.034179181226513</v>
+        <v>1.033757209400301</v>
       </c>
       <c r="M17">
-        <v>1.042593611963909</v>
+        <v>1.041958770811495</v>
       </c>
       <c r="N17">
-        <v>1.014474598519565</v>
+        <v>1.01561180398911</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039730748923428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039129584406672</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022819816768801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005485157321152</v>
+        <v>1.00503719867349</v>
       </c>
       <c r="D18">
-        <v>1.027412632742114</v>
+        <v>1.026478798771261</v>
       </c>
       <c r="E18">
-        <v>1.021159359972173</v>
+        <v>1.020693374352901</v>
       </c>
       <c r="F18">
-        <v>1.029756893862202</v>
+        <v>1.029069968364738</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047035494621968</v>
+        <v>1.046652828010245</v>
       </c>
       <c r="J18">
-        <v>1.032342531686651</v>
+        <v>1.031911248146835</v>
       </c>
       <c r="K18">
-        <v>1.040774389707325</v>
+        <v>1.039855607595786</v>
       </c>
       <c r="L18">
-        <v>1.034622584215504</v>
+        <v>1.03416422379152</v>
       </c>
       <c r="M18">
-        <v>1.043081019449192</v>
+        <v>1.042405098085055</v>
       </c>
       <c r="N18">
-        <v>1.014604346113817</v>
+        <v>1.015663850356576</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039969350080147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.0393351704509</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022881046387108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005765147606138</v>
+        <v>1.005304241639732</v>
       </c>
       <c r="D19">
-        <v>1.02760472721646</v>
+        <v>1.026655707726577</v>
       </c>
       <c r="E19">
-        <v>1.021381283690992</v>
+        <v>1.020903153192296</v>
       </c>
       <c r="F19">
-        <v>1.029994009783149</v>
+        <v>1.029293316669513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047102064920044</v>
+        <v>1.046711517248649</v>
       </c>
       <c r="J19">
-        <v>1.032478745269869</v>
+        <v>1.032034883135704</v>
       </c>
       <c r="K19">
-        <v>1.040901309306882</v>
+        <v>1.03996749794153</v>
       </c>
       <c r="L19">
-        <v>1.034778258547375</v>
+        <v>1.034307905998447</v>
       </c>
       <c r="M19">
-        <v>1.043252462413461</v>
+        <v>1.042562927828296</v>
       </c>
       <c r="N19">
-        <v>1.014650514276472</v>
+        <v>1.015685694820875</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040065447886754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039421263828849</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022903955034492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004525634794576</v>
+        <v>1.004124753364771</v>
       </c>
       <c r="D20">
-        <v>1.026765032746295</v>
+        <v>1.025885479873795</v>
       </c>
       <c r="E20">
-        <v>1.020402430671034</v>
+        <v>1.01998045903727</v>
       </c>
       <c r="F20">
-        <v>1.028949608126972</v>
+        <v>1.028312252194801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046814020678001</v>
+        <v>1.04645968505087</v>
       </c>
       <c r="J20">
-        <v>1.031883208651021</v>
+        <v>1.031497593457313</v>
       </c>
       <c r="K20">
-        <v>1.040353030141137</v>
+        <v>1.039487939438768</v>
       </c>
       <c r="L20">
-        <v>1.034095770283905</v>
+        <v>1.033680844888756</v>
       </c>
       <c r="M20">
-        <v>1.042501822816061</v>
+        <v>1.041874886396049</v>
       </c>
       <c r="N20">
-        <v>1.014449970949514</v>
+        <v>1.015602875653481</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039681690720805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039086480071522</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02280789843932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000433997040445</v>
+        <v>1.000290504383672</v>
       </c>
       <c r="D21">
-        <v>1.023996611975886</v>
+        <v>1.023390585512188</v>
       </c>
       <c r="E21">
-        <v>1.017179563254539</v>
+        <v>1.01699532675524</v>
       </c>
       <c r="F21">
-        <v>1.025510289311469</v>
+        <v>1.02513264326707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045851523645659</v>
+        <v>1.045645311099869</v>
       </c>
       <c r="J21">
-        <v>1.02991358421641</v>
+        <v>1.029776084747783</v>
       </c>
       <c r="K21">
-        <v>1.03853718951821</v>
+        <v>1.037941964861772</v>
       </c>
       <c r="L21">
-        <v>1.031842612766951</v>
+        <v>1.03166171581434</v>
       </c>
       <c r="M21">
-        <v>1.040023959445286</v>
+        <v>1.039653016853524</v>
       </c>
       <c r="N21">
-        <v>1.013786237948101</v>
+        <v>1.015556344295822</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038401044680028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037996966319997</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022499161442202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.997808055673282</v>
+        <v>0.9978290512157749</v>
       </c>
       <c r="D22">
-        <v>1.022220062160069</v>
+        <v>1.02178916205979</v>
       </c>
       <c r="E22">
-        <v>1.015116954767964</v>
+        <v>1.015084751373162</v>
       </c>
       <c r="F22">
-        <v>1.023308312952873</v>
+        <v>1.023096935435746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045223103235261</v>
+        <v>1.045111688963223</v>
       </c>
       <c r="J22">
-        <v>1.028644757653988</v>
+        <v>1.028664825906997</v>
       </c>
       <c r="K22">
-        <v>1.037363823364802</v>
+        <v>1.03694098642175</v>
       </c>
       <c r="L22">
-        <v>1.030394774669123</v>
+        <v>1.030363184645447</v>
       </c>
       <c r="M22">
-        <v>1.038431749867033</v>
+        <v>1.038224315644053</v>
       </c>
       <c r="N22">
-        <v>1.013357920200622</v>
+        <v>1.015514224186167</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037557989079801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037274495917964</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022295943261829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9991960701179733</v>
+        <v>0.9991194144965083</v>
       </c>
       <c r="D23">
-        <v>1.023153115826181</v>
+        <v>1.022621452753112</v>
       </c>
       <c r="E23">
-        <v>1.016204806743977</v>
+        <v>1.016082727189284</v>
       </c>
       <c r="F23">
-        <v>1.02446893838038</v>
+        <v>1.024160427414679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045552147693747</v>
+        <v>1.045385366553544</v>
       </c>
       <c r="J23">
-        <v>1.029311495661451</v>
+        <v>1.029238127622172</v>
       </c>
       <c r="K23">
-        <v>1.037976922398192</v>
+        <v>1.037454956982101</v>
       </c>
       <c r="L23">
-        <v>1.031156395763108</v>
+        <v>1.031036581679795</v>
       </c>
       <c r="M23">
-        <v>1.039268800355606</v>
+        <v>1.038965896314065</v>
       </c>
       <c r="N23">
-        <v>1.013582265697802</v>
+        <v>1.01549252206549</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037981882642439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037627359413141</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022398497893553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004580074614157</v>
+        <v>1.004176307804173</v>
       </c>
       <c r="D24">
-        <v>1.026793120567349</v>
+        <v>1.025910136006415</v>
       </c>
       <c r="E24">
-        <v>1.020442763705179</v>
+        <v>1.020018098754646</v>
       </c>
       <c r="F24">
-        <v>1.028991398261969</v>
+        <v>1.028350977924474</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046820601382339</v>
+        <v>1.046464532870291</v>
       </c>
       <c r="J24">
-        <v>1.031902951137061</v>
+        <v>1.031514536588553</v>
       </c>
       <c r="K24">
-        <v>1.040365507711317</v>
+        <v>1.039497022210686</v>
       </c>
       <c r="L24">
-        <v>1.034120146649437</v>
+        <v>1.033702563124419</v>
       </c>
       <c r="M24">
-        <v>1.04252782745541</v>
+        <v>1.041897862287538</v>
       </c>
       <c r="N24">
-        <v>1.014455487479956</v>
+        <v>1.015602578572566</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039663247122628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039062963887726</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022807867282924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010642955970236</v>
+        <v>1.010014146436828</v>
       </c>
       <c r="D25">
-        <v>1.030914657451641</v>
+        <v>1.029742750477864</v>
       </c>
       <c r="E25">
-        <v>1.025245355751483</v>
+        <v>1.024606300677715</v>
       </c>
       <c r="F25">
-        <v>1.034116048368324</v>
+        <v>1.033224087412395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048219004252391</v>
+        <v>1.04771846781357</v>
       </c>
       <c r="J25">
-        <v>1.034817375197814</v>
+        <v>1.034209131431546</v>
       </c>
       <c r="K25">
-        <v>1.043051296091138</v>
+        <v>1.041896249788575</v>
       </c>
       <c r="L25">
-        <v>1.037464014604608</v>
+        <v>1.036834277226518</v>
       </c>
       <c r="M25">
-        <v>1.046206873850668</v>
+        <v>1.045327641097342</v>
       </c>
       <c r="N25">
-        <v>1.015437512079674</v>
+        <v>1.016276568480443</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041559371436981</v>
+        <v>1.040756170840903</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023289985426625</v>
       </c>
     </row>
   </sheetData>
